--- a/NE6/game/bids/turn11strat.xlsx
+++ b/NE6/game/bids/turn11strat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andyq\Documents\sgool\NE6\game\bids\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\MPhilGit\NE6\game\bids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{695AC280-7055-4D8C-8806-71E822DD1F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E86C227-326E-4B80-8105-3D74384547EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{27F68D0F-8EB7-4EE2-A6B1-D11A37F41A89}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{27F68D0F-8EB7-4EE2-A6B1-D11A37F41A89}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -312,7 +312,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,6 +322,12 @@
     </font>
     <font>
       <sz val="6"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -362,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -401,7 +407,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -738,22 +750,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18872494-17F8-41C5-9F06-C033E26643E6}">
-  <dimension ref="A1:L100"/>
+  <dimension ref="A1:V100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="128" workbookViewId="0">
-      <selection activeCell="H60" sqref="H60"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="22.453125" customWidth="1"/>
-    <col min="8" max="8" width="24.1796875" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
+    <col min="8" max="8" width="24.140625" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="11" max="11" width="12.1796875" customWidth="1"/>
-    <col min="12" max="12" width="20.7265625" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -782,8 +794,20 @@
       <c r="K1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="R1" s="14">
+        <v>39</v>
+      </c>
+      <c r="S1" s="14">
+        <v>33</v>
+      </c>
+      <c r="U1" s="14">
+        <v>39</v>
+      </c>
+      <c r="V1" s="14">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -812,8 +836,20 @@
         <f>SUMIF(C:C,"solar",D:D)</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="R2" s="15">
+        <v>38</v>
+      </c>
+      <c r="S2" s="15">
+        <v>53</v>
+      </c>
+      <c r="U2" s="15">
+        <v>38</v>
+      </c>
+      <c r="V2" s="15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -842,8 +878,20 @@
         <f>G2+H3+I3</f>
         <v>9761</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="R3" s="14">
+        <v>37</v>
+      </c>
+      <c r="S3" s="14">
+        <v>72</v>
+      </c>
+      <c r="U3" s="14">
+        <v>37</v>
+      </c>
+      <c r="V3" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -866,8 +914,20 @@
       <c r="H4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="R4" s="15">
+        <v>36</v>
+      </c>
+      <c r="S4" s="15">
+        <v>77</v>
+      </c>
+      <c r="U4" s="15">
+        <v>36</v>
+      </c>
+      <c r="V4" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -892,8 +952,20 @@
         <f>SUMIFS(D:D,C:C,"wind",A:A,"Du.On")</f>
         <v>6400</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="R5" s="14">
+        <v>35</v>
+      </c>
+      <c r="S5" s="14">
+        <v>71</v>
+      </c>
+      <c r="U5" s="14">
+        <v>35</v>
+      </c>
+      <c r="V5" s="14">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -910,8 +982,20 @@
         <v>4</v>
       </c>
       <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="R6" s="15">
+        <v>34</v>
+      </c>
+      <c r="S6" s="15">
+        <v>37</v>
+      </c>
+      <c r="U6" s="15">
+        <v>34</v>
+      </c>
+      <c r="V6" s="15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -940,8 +1024,20 @@
       <c r="J7" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="R7" s="14">
+        <v>33</v>
+      </c>
+      <c r="S7" s="14">
+        <v>32</v>
+      </c>
+      <c r="U7" s="14">
+        <v>33</v>
+      </c>
+      <c r="V7" s="14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -973,8 +1069,20 @@
         <f>H8+I8</f>
         <v>2750</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="R8" s="15">
+        <v>32</v>
+      </c>
+      <c r="S8" s="15">
+        <v>71</v>
+      </c>
+      <c r="U8" s="15">
+        <v>32</v>
+      </c>
+      <c r="V8" s="15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -991,8 +1099,20 @@
         <v>3</v>
       </c>
       <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="R9" s="14">
+        <v>31</v>
+      </c>
+      <c r="S9" s="14">
+        <v>20</v>
+      </c>
+      <c r="U9" s="14">
+        <v>31</v>
+      </c>
+      <c r="V9" s="14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
@@ -1012,8 +1132,20 @@
       <c r="G10" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="R10" s="15">
+        <v>30</v>
+      </c>
+      <c r="S10" s="15">
+        <v>25</v>
+      </c>
+      <c r="U10" s="15">
+        <v>30</v>
+      </c>
+      <c r="V10" s="15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -1033,8 +1165,20 @@
       <c r="G11">
         <v>3.7757999999999998</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="R11" s="14">
+        <v>29</v>
+      </c>
+      <c r="S11" s="14">
+        <v>23</v>
+      </c>
+      <c r="U11" s="14">
+        <v>29</v>
+      </c>
+      <c r="V11" s="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>5</v>
       </c>
@@ -1051,8 +1195,20 @@
         <v>3</v>
       </c>
       <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="R12" s="15">
+        <v>28</v>
+      </c>
+      <c r="S12" s="15">
+        <v>33</v>
+      </c>
+      <c r="U12" s="15">
+        <v>28</v>
+      </c>
+      <c r="V12" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
@@ -1069,8 +1225,20 @@
         <v>2</v>
       </c>
       <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="R13" s="14">
+        <v>27</v>
+      </c>
+      <c r="S13" s="14">
+        <v>68</v>
+      </c>
+      <c r="U13" s="14">
+        <v>27</v>
+      </c>
+      <c r="V13" s="14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>0</v>
       </c>
@@ -1087,8 +1255,20 @@
         <v>2</v>
       </c>
       <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="R14" s="15">
+        <v>26</v>
+      </c>
+      <c r="S14" s="15">
+        <v>52</v>
+      </c>
+      <c r="U14" s="15">
+        <v>26</v>
+      </c>
+      <c r="V14" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
@@ -1105,8 +1285,20 @@
         <v>0</v>
       </c>
       <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="R15" s="14">
+        <v>25</v>
+      </c>
+      <c r="S15" s="14">
+        <v>21</v>
+      </c>
+      <c r="U15" s="14">
+        <v>25</v>
+      </c>
+      <c r="V15" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>3</v>
       </c>
@@ -1123,8 +1315,20 @@
         <v>0</v>
       </c>
       <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="R16" s="15">
+        <v>24</v>
+      </c>
+      <c r="S16" s="15">
+        <v>61</v>
+      </c>
+      <c r="U16" s="15">
+        <v>24</v>
+      </c>
+      <c r="V16" s="15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
@@ -1141,8 +1345,20 @@
         <v>0</v>
       </c>
       <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="R17" s="14">
+        <v>23</v>
+      </c>
+      <c r="S17" s="14">
+        <v>18</v>
+      </c>
+      <c r="U17" s="14">
+        <v>23</v>
+      </c>
+      <c r="V17" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
@@ -1159,8 +1375,20 @@
         <v>0</v>
       </c>
       <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="R18" s="15">
+        <v>22</v>
+      </c>
+      <c r="S18" s="15">
+        <v>63</v>
+      </c>
+      <c r="U18" s="15">
+        <v>22</v>
+      </c>
+      <c r="V18" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -1177,8 +1405,20 @@
         <v>0</v>
       </c>
       <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="R19" s="14">
+        <v>21</v>
+      </c>
+      <c r="S19" s="14">
+        <v>70</v>
+      </c>
+      <c r="U19" s="14">
+        <v>21</v>
+      </c>
+      <c r="V19" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>0</v>
       </c>
@@ -1195,8 +1435,20 @@
         <v>0</v>
       </c>
       <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="R20" s="15">
+        <v>20</v>
+      </c>
+      <c r="S20" s="15">
+        <v>65</v>
+      </c>
+      <c r="U20" s="15">
+        <v>20</v>
+      </c>
+      <c r="V20" s="15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -1213,8 +1465,20 @@
         <v>-1</v>
       </c>
       <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="R21" s="14">
+        <v>19</v>
+      </c>
+      <c r="S21" s="14">
+        <v>59</v>
+      </c>
+      <c r="U21" s="14">
+        <v>19</v>
+      </c>
+      <c r="V21" s="14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>10</v>
       </c>
@@ -1231,8 +1495,20 @@
         <v>-1</v>
       </c>
       <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="R22" s="15">
+        <v>18</v>
+      </c>
+      <c r="S22" s="15">
+        <v>68</v>
+      </c>
+      <c r="U22" s="15">
+        <v>18</v>
+      </c>
+      <c r="V22" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -1249,8 +1525,20 @@
         <v>-1</v>
       </c>
       <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="R23" s="14">
+        <v>17</v>
+      </c>
+      <c r="S23" s="14">
+        <v>71</v>
+      </c>
+      <c r="U23" s="14">
+        <v>17</v>
+      </c>
+      <c r="V23" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>5</v>
       </c>
@@ -1267,8 +1555,20 @@
         <v>-2</v>
       </c>
       <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="R24" s="15">
+        <v>16</v>
+      </c>
+      <c r="S24" s="15">
+        <v>80</v>
+      </c>
+      <c r="U24" s="15">
+        <v>16</v>
+      </c>
+      <c r="V24" s="15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
@@ -1285,8 +1585,20 @@
         <v>-3</v>
       </c>
       <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="R25" s="14">
+        <v>15</v>
+      </c>
+      <c r="S25" s="14">
+        <v>27</v>
+      </c>
+      <c r="U25" s="14">
+        <v>15</v>
+      </c>
+      <c r="V25" s="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>10</v>
       </c>
@@ -1303,8 +1615,20 @@
         <v>-3</v>
       </c>
       <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="R26" s="15">
+        <v>14</v>
+      </c>
+      <c r="S26" s="15">
+        <v>45</v>
+      </c>
+      <c r="U26" s="15">
+        <v>14</v>
+      </c>
+      <c r="V26" s="15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>10</v>
       </c>
@@ -1321,8 +1645,20 @@
         <v>-3</v>
       </c>
       <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="R27" s="14">
+        <v>13</v>
+      </c>
+      <c r="S27" s="14">
+        <v>42</v>
+      </c>
+      <c r="U27" s="14">
+        <v>13</v>
+      </c>
+      <c r="V27" s="14">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>0</v>
       </c>
@@ -1339,8 +1675,20 @@
         <v>-3</v>
       </c>
       <c r="F28" s="4"/>
-    </row>
-    <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.35">
+      <c r="R28" s="15">
+        <v>12</v>
+      </c>
+      <c r="S28" s="15">
+        <v>45</v>
+      </c>
+      <c r="U28" s="15">
+        <v>12</v>
+      </c>
+      <c r="V28" s="15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>3</v>
       </c>
@@ -1357,8 +1705,20 @@
         <v>-4</v>
       </c>
       <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="R29" s="14">
+        <v>11</v>
+      </c>
+      <c r="S29" s="14">
+        <v>47</v>
+      </c>
+      <c r="U29" s="14">
+        <v>11</v>
+      </c>
+      <c r="V29" s="14">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>5</v>
       </c>
@@ -1375,8 +1735,20 @@
         <v>-4</v>
       </c>
       <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="R30" s="15">
+        <v>10</v>
+      </c>
+      <c r="S30" s="15">
+        <v>41</v>
+      </c>
+      <c r="U30" s="15">
+        <v>10</v>
+      </c>
+      <c r="V30" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>21</v>
       </c>
@@ -1393,8 +1765,20 @@
         <v>-5</v>
       </c>
       <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="R31" s="14">
+        <v>9</v>
+      </c>
+      <c r="S31" s="14">
+        <v>39</v>
+      </c>
+      <c r="U31" s="14">
+        <v>9</v>
+      </c>
+      <c r="V31" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>5</v>
       </c>
@@ -1411,8 +1795,20 @@
         <v>-5</v>
       </c>
       <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.35">
+      <c r="R32" s="15">
+        <v>8</v>
+      </c>
+      <c r="S32" s="15">
+        <v>51</v>
+      </c>
+      <c r="U32" s="15">
+        <v>8</v>
+      </c>
+      <c r="V32" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>10</v>
       </c>
@@ -1429,8 +1825,20 @@
         <v>-5</v>
       </c>
       <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="R33" s="14">
+        <v>7</v>
+      </c>
+      <c r="S33" s="14">
+        <v>50</v>
+      </c>
+      <c r="U33" s="14">
+        <v>7</v>
+      </c>
+      <c r="V33" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>21</v>
       </c>
@@ -1447,8 +1855,20 @@
         <v>-6</v>
       </c>
       <c r="F34" s="4"/>
-    </row>
-    <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.35">
+      <c r="R34" s="15">
+        <v>6</v>
+      </c>
+      <c r="S34" s="15">
+        <v>46</v>
+      </c>
+      <c r="U34" s="15">
+        <v>6</v>
+      </c>
+      <c r="V34" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>21</v>
       </c>
@@ -1465,8 +1885,20 @@
         <v>-6</v>
       </c>
       <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="R35" s="14">
+        <v>5</v>
+      </c>
+      <c r="S35" s="14">
+        <v>32</v>
+      </c>
+      <c r="U35" s="14">
+        <v>5</v>
+      </c>
+      <c r="V35" s="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>3</v>
       </c>
@@ -1483,8 +1915,20 @@
         <v>-6</v>
       </c>
       <c r="F36" s="4"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="R36" s="15">
+        <v>4</v>
+      </c>
+      <c r="S36" s="15">
+        <v>15</v>
+      </c>
+      <c r="U36" s="15">
+        <v>4</v>
+      </c>
+      <c r="V36" s="15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>3</v>
       </c>
@@ -1501,8 +1945,20 @@
         <v>-6</v>
       </c>
       <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="R37" s="14">
+        <v>3</v>
+      </c>
+      <c r="S37" s="14">
+        <v>43</v>
+      </c>
+      <c r="U37" s="14">
+        <v>3</v>
+      </c>
+      <c r="V37" s="14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>10</v>
       </c>
@@ -1519,8 +1975,20 @@
         <v>-6</v>
       </c>
       <c r="F38" s="4"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="R38" s="15">
+        <v>2</v>
+      </c>
+      <c r="S38" s="15">
+        <v>25</v>
+      </c>
+      <c r="U38" s="15">
+        <v>2</v>
+      </c>
+      <c r="V38" s="15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>3</v>
       </c>
@@ -1537,8 +2005,20 @@
         <v>-8</v>
       </c>
       <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:6" ht="16" x14ac:dyDescent="0.35">
+      <c r="R39" s="14">
+        <v>1</v>
+      </c>
+      <c r="S39" s="14">
+        <v>23</v>
+      </c>
+      <c r="U39" s="14">
+        <v>1</v>
+      </c>
+      <c r="V39" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>10</v>
       </c>
@@ -1555,8 +2035,20 @@
         <v>-8</v>
       </c>
       <c r="F40" s="4"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="R40" s="15">
+        <v>0</v>
+      </c>
+      <c r="S40" s="15">
+        <v>83</v>
+      </c>
+      <c r="U40" s="15">
+        <v>0</v>
+      </c>
+      <c r="V40" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>21</v>
       </c>
@@ -1573,8 +2065,20 @@
         <v>-9</v>
       </c>
       <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="R41" s="14">
+        <v>-1</v>
+      </c>
+      <c r="S41" s="14">
+        <v>65</v>
+      </c>
+      <c r="U41" s="14">
+        <v>-1</v>
+      </c>
+      <c r="V41" s="14">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>3</v>
       </c>
@@ -1591,8 +2095,20 @@
         <v>-9</v>
       </c>
       <c r="F42" s="4"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="R42" s="15">
+        <v>-2</v>
+      </c>
+      <c r="S42" s="15">
+        <v>84</v>
+      </c>
+      <c r="U42" s="15">
+        <v>-2</v>
+      </c>
+      <c r="V42" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>5</v>
       </c>
@@ -1609,8 +2125,20 @@
         <v>-9</v>
       </c>
       <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="R43" s="14">
+        <v>-3</v>
+      </c>
+      <c r="S43" s="14">
+        <v>27</v>
+      </c>
+      <c r="U43" s="14">
+        <v>-3</v>
+      </c>
+      <c r="V43" s="14">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>10</v>
       </c>
@@ -1627,8 +2155,20 @@
         <v>-9</v>
       </c>
       <c r="F44" s="4"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="R44" s="15">
+        <v>-4</v>
+      </c>
+      <c r="S44" s="15">
+        <v>64</v>
+      </c>
+      <c r="U44" s="15">
+        <v>-4</v>
+      </c>
+      <c r="V44" s="15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
@@ -1645,8 +2185,20 @@
         <v>-9</v>
       </c>
       <c r="F45" s="1"/>
-    </row>
-    <row r="46" spans="1:6" ht="16" x14ac:dyDescent="0.35">
+      <c r="R45" s="16">
+        <v>-5</v>
+      </c>
+      <c r="S45" s="16">
+        <v>27</v>
+      </c>
+      <c r="U45" s="16">
+        <v>-5</v>
+      </c>
+      <c r="V45" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>3</v>
       </c>
@@ -1663,8 +2215,16 @@
         <v>-10</v>
       </c>
       <c r="F46" s="4"/>
-    </row>
-    <row r="47" spans="1:6" ht="16" x14ac:dyDescent="0.35">
+      <c r="S46">
+        <f>AVERAGE(S1:S45)</f>
+        <v>48.088888888888889</v>
+      </c>
+      <c r="V46">
+        <f>AVERAGE(V1:V45)</f>
+        <v>14.555555555555555</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>5</v>
       </c>
@@ -1681,8 +2241,16 @@
         <v>-10</v>
       </c>
       <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="1:6" ht="16" x14ac:dyDescent="0.35">
+      <c r="S47">
+        <f>_xlfn.STDEV.P(S1:S45)</f>
+        <v>19.813376202535746</v>
+      </c>
+      <c r="V47">
+        <f>_xlfn.STDEV.P(V1:V45)</f>
+        <v>10.904750352342486</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>3</v>
       </c>
@@ -1700,7 +2268,7 @@
       </c>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="1:12" ht="16" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>10</v>
       </c>
@@ -1718,7 +2286,7 @@
       </c>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="1:12" ht="16" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>21</v>
       </c>
@@ -1736,7 +2304,7 @@
       </c>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>10</v>
       </c>
@@ -1754,7 +2322,7 @@
       </c>
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>21</v>
       </c>
@@ -1772,7 +2340,7 @@
       </c>
       <c r="F52" s="10"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>5</v>
       </c>
@@ -1789,7 +2357,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>10</v>
       </c>
@@ -1806,7 +2374,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>10</v>
       </c>
@@ -1823,7 +2391,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>10</v>
       </c>
@@ -1841,7 +2409,7 @@
       </c>
       <c r="G56" s="2"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>10</v>
       </c>
@@ -1859,7 +2427,7 @@
       </c>
       <c r="G57" s="5"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>10</v>
       </c>
@@ -1886,7 +2454,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>5</v>
       </c>
@@ -1920,7 +2488,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>5</v>
       </c>
@@ -1946,7 +2514,7 @@
         <v>8800</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>5</v>
       </c>
@@ -1972,7 +2540,7 @@
         <v>3520</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="16" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>21</v>
       </c>
@@ -1990,7 +2558,7 @@
       </c>
       <c r="G62" s="2"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>10</v>
       </c>
@@ -2008,7 +2576,7 @@
       </c>
       <c r="G63" s="5"/>
     </row>
-    <row r="64" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="11" t="s">
         <v>10</v>
       </c>
@@ -2040,7 +2608,7 @@
         <v>6853</v>
       </c>
     </row>
-    <row r="65" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C65" s="4"/>
       <c r="D65" s="5"/>
       <c r="G65" s="12"/>
@@ -2059,15 +2627,15 @@
         <v>8207</v>
       </c>
     </row>
-    <row r="66" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C66" s="14"/>
-    </row>
-    <row r="72" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="66" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C66" s="1"/>
+    </row>
+    <row r="72" spans="3:11" x14ac:dyDescent="0.25">
       <c r="G72" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>12</v>
       </c>
@@ -2075,7 +2643,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>11</v>
       </c>
@@ -2083,7 +2651,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>10</v>
       </c>
@@ -2091,7 +2659,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>9</v>
       </c>
@@ -2099,7 +2667,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>8</v>
       </c>
@@ -2107,7 +2675,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>7</v>
       </c>
@@ -2115,7 +2683,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>6</v>
       </c>
@@ -2123,7 +2691,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>5</v>
       </c>
@@ -2131,7 +2699,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>4</v>
       </c>
@@ -2139,7 +2707,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>3</v>
       </c>
@@ -2147,7 +2715,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>2</v>
       </c>
@@ -2155,7 +2723,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>1</v>
       </c>
@@ -2163,7 +2731,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>0</v>
       </c>
@@ -2171,7 +2739,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>-1</v>
       </c>
@@ -2179,7 +2747,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>-2</v>
       </c>
@@ -2187,7 +2755,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>-3</v>
       </c>
@@ -2195,7 +2763,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>-4</v>
       </c>
@@ -2203,7 +2771,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="11">
         <v>-5</v>
       </c>

--- a/NE6/game/bids/turn11strat.xlsx
+++ b/NE6/game/bids/turn11strat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\MPhilGit\NE6\game\bids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E86C227-326E-4B80-8105-3D74384547EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0D1C28-1149-453B-97FF-2378A76D3323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{27F68D0F-8EB7-4EE2-A6B1-D11A37F41A89}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{27F68D0F-8EB7-4EE2-A6B1-D11A37F41A89}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="94">
   <si>
     <t>E4Ever</t>
   </si>
@@ -306,6 +306,18 @@
   </si>
   <si>
     <t>Cost</t>
+  </si>
+  <si>
+    <t>Beta nuclear</t>
+  </si>
+  <si>
+    <t>E4Ever nuclear</t>
+  </si>
+  <si>
+    <t>Du.On wind</t>
+  </si>
+  <si>
+    <t>Centrina wind</t>
   </si>
 </sst>
 </file>
@@ -753,13 +765,13 @@
   <dimension ref="A1:V100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="22.42578125" customWidth="1"/>
-    <col min="8" max="8" width="24.140625" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
     <col min="11" max="11" width="12.140625" customWidth="1"/>
     <col min="12" max="12" width="20.7109375" customWidth="1"/>
@@ -909,10 +921,10 @@
       </c>
       <c r="F4" s="4"/>
       <c r="G4" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="R4" s="15">
         <v>36</v>
@@ -1013,10 +1025,10 @@
       </c>
       <c r="F7" s="1"/>
       <c r="G7" t="s">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="H7" t="s">
-        <v>5</v>
+        <v>93</v>
       </c>
       <c r="I7" t="s">
         <v>81</v>
